--- a/projet_SID32/sample_files/cart_product_example.xlsx
+++ b/projet_SID32/sample_files/cart_product_example.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,16 +472,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2019-01-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2024-12-31</t>
         </is>
       </c>
     </row>
@@ -497,41 +497,366 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2019-01-01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2024-12-31</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>C01</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>P04</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2019-01-01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C01</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>P05</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2019-01-01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C01</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>P06</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2019-01-01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>C02</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>P01</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2019-01-01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C02</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>P02</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2019-01-01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C02</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>P03</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2019-01-01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>C02</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>P04</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>15</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2019-01-01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>C02</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>P05</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>15</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2019-01-01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>C02</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>P06</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2019-01-01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C02</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>P07</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>15</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2019-01-01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C03</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>P01</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>30</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2024-12-24</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2025-01-23</t>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2019-01-01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C03</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>P02</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>20</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2019-01-01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C03</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>P06</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2019-01-01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C03</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>P08</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>20</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2019-01-01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
         </is>
       </c>
     </row>
